--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,77 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>1600</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -741,19 +752,28 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -770,19 +790,28 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-200</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -799,8 +828,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,19 +850,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -841,8 +882,17 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +920,55 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +996,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1015,87 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-7000</v>
       </c>
       <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,45 +1107,57 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>800</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1067,8 +1177,17 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,54 +1198,72 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1291,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1329,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1443,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1481,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1519,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1557,93 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1671,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1774,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1790,49 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>67900</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,42 +1860,60 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1634,43 +1921,52 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1678,95 +1974,131 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>12400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>12400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>148500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>147600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>147000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>146400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>145900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2126,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2164,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2202,55 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2278,55 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G54" s="3">
         <v>12500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>12400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>148500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>147900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>147400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>146900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>146500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2338,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2354,49 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2424,93 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="E60" s="3">
-        <v>1600</v>
+        <v>5700</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>5100</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>6800</v>
       </c>
       <c r="H60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2538,55 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2614,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2652,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2690,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5100</v>
       </c>
       <c r="K66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2750,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2782,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2820,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2858,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2896,55 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="G72" s="3">
         <v>1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2972,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3010,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +3048,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G76" s="3">
         <v>5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>142800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>142300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>142300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>141800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>141400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +3124,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3227,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3297,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3335,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3373,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3411,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3449,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-7400</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3509,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3579,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,26 +3617,35 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>136900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -2964,10 +3653,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3677,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3709,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3747,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3785,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,26 +3823,35 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>60100</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-136900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3122,10 +3859,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3899,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
         <v>1600</v>
       </c>
       <c r="F8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -761,23 +765,26 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="3">
         <v>1200</v>
       </c>
       <c r="F9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,23 +806,26 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>-600</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,14 +876,14 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,23 +946,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,37 +1044,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1056,37 +1083,40 @@
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,22 +1143,23 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>800</v>
       </c>
       <c r="H20" s="3">
         <v>800</v>
@@ -1134,34 +1168,37 @@
         <v>800</v>
       </c>
       <c r="J20" s="3">
+        <v>800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1186,23 +1223,26 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1252,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1224,31 +1264,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>400</v>
@@ -1257,13 +1300,16 @@
         <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,31 +1387,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
@@ -1371,39 +1423,42 @@
         <v>400</v>
       </c>
       <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,22 +1633,25 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-800</v>
       </c>
       <c r="H32" s="3">
         <v>-800</v>
@@ -1590,48 +1660,51 @@
         <v>-800</v>
       </c>
       <c r="J32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,34 +1756,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,23 +1879,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E41" s="3">
         <v>67900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1817,22 +1904,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,23 +1959,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1895,8 +1988,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1916,13 +2012,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1933,8 +2029,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1945,31 +2041,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1983,22 +2082,25 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E46" s="3">
         <v>70100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2007,22 +2109,25 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,47 +2140,50 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>12400</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>12400</v>
       </c>
       <c r="I47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J47" s="3">
         <v>148500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>147600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>147000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>146400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>145900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2085,8 +2193,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2220,13 +2340,13 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2237,8 +2357,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E54" s="3">
         <v>72000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>148500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>147900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
       </c>
       <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,35 +2567,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4100</v>
       </c>
       <c r="F59" s="3">
         <v>4100</v>
       </c>
       <c r="G59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H59" s="3">
         <v>4400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5100</v>
       </c>
       <c r="I59" s="3">
         <v>5100</v>
       </c>
       <c r="J59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -2471,46 +2608,52 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2574,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>5000</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,34 +2854,37 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5100</v>
       </c>
       <c r="L66" s="3">
         <v>5100</v>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-98100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1800</v>
       </c>
       <c r="I72" s="3">
         <v>1800</v>
       </c>
       <c r="J72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K72" s="3">
         <v>1300</v>
       </c>
       <c r="L72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M72" s="3">
         <v>900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E76" s="3">
         <v>66600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>142800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>142300</v>
       </c>
       <c r="K76" s="3">
         <v>142300</v>
       </c>
       <c r="L76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="M76" s="3">
         <v>141800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>141400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,77 +3322,83 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,10 +3438,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3256,8 +3455,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,34 +3672,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3494,10 +3711,13 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,19 +3732,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3538,8 +3759,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,29 +3853,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>136900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3662,10 +3892,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,29 +4075,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>60100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-136900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -3868,10 +4114,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,34 +4157,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>52500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
@@ -3944,6 +4196,9 @@
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1600</v>
       </c>
       <c r="F8" s="3">
         <v>1600</v>
       </c>
       <c r="G8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -768,26 +772,29 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1200</v>
       </c>
       <c r="F9" s="3">
         <v>1200</v>
       </c>
       <c r="G9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,26 +816,29 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,26 +880,27 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,15 +980,15 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +998,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,40 +1071,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1086,40 +1113,43 @@
       <c r="O17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,25 +1177,26 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>800</v>
       </c>
       <c r="I20" s="3">
         <v>800</v>
@@ -1171,37 +1205,40 @@
         <v>800</v>
       </c>
       <c r="K20" s="3">
+        <v>800</v>
+      </c>
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,26 +1263,29 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1255,8 +1295,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,25 +1319,25 @@
         <v>-9400</v>
       </c>
       <c r="E23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
@@ -1303,13 +1346,16 @@
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,25 +1451,25 @@
         <v>-9400</v>
       </c>
       <c r="E26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>400</v>
       </c>
       <c r="L26" s="3">
         <v>400</v>
@@ -1426,13 +1478,16 @@
         <v>400</v>
       </c>
       <c r="N26" s="3">
+        <v>400</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,28 +1495,28 @@
         <v>-9400</v>
       </c>
       <c r="E27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,25 +1703,28 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-800</v>
       </c>
       <c r="I32" s="3">
         <v>-800</v>
@@ -1663,22 +1733,25 @@
         <v>-800</v>
       </c>
       <c r="K32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1686,28 +1759,28 @@
         <v>-9400</v>
       </c>
       <c r="E33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1768,28 +1847,28 @@
         <v>-9400</v>
       </c>
       <c r="E35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,26 +1966,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E41" s="3">
         <v>61100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1907,45 +1994,48 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>36900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1962,26 +2052,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1991,8 +2084,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2015,13 +2111,13 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2032,8 +2128,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2044,34 +2140,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2085,25 +2184,28 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E46" s="3">
         <v>62500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2112,22 +2214,25 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2143,50 +2248,53 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>12400</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>12400</v>
       </c>
       <c r="J47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K47" s="3">
         <v>148500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>147600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>147000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>146400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>145900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,8 +2304,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2343,13 +2463,13 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2360,8 +2480,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E54" s="3">
         <v>64700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>148500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>147400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,40 +2628,43 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>1600</v>
       </c>
       <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,38 +2704,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4100</v>
       </c>
       <c r="G59" s="3">
         <v>4100</v>
       </c>
       <c r="H59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I59" s="3">
         <v>4400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5100</v>
       </c>
       <c r="J59" s="3">
         <v>5100</v>
       </c>
       <c r="K59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -2611,49 +2748,55 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,37 +2836,40 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>5000</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,37 +3012,40 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5100</v>
       </c>
       <c r="M66" s="3">
         <v>5100</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-98100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-86000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1800</v>
       </c>
       <c r="J72" s="3">
         <v>1800</v>
       </c>
       <c r="K72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L72" s="3">
         <v>1300</v>
       </c>
       <c r="M72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N72" s="3">
         <v>900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E76" s="3">
         <v>58900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>66600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>142800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>142300</v>
       </c>
       <c r="L76" s="3">
         <v>142300</v>
       </c>
       <c r="M76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="N76" s="3">
         <v>141800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>141400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,28 +3575,28 @@
         <v>-9400</v>
       </c>
       <c r="E81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,22 +3627,23 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3458,8 +3657,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,37 +3889,40 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -3714,10 +3931,13 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,22 +3953,23 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3762,8 +3983,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,32 +4083,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>-200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>136900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -3895,10 +4125,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,32 +4321,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>60100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-136900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4117,10 +4363,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,37 +4409,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
@@ -4199,6 +4451,9 @@
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,98 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1600</v>
       </c>
       <c r="G8" s="3">
         <v>1600</v>
       </c>
       <c r="H8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -775,29 +778,32 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1200</v>
       </c>
       <c r="G9" s="3">
         <v>1200</v>
       </c>
       <c r="H9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,29 +825,32 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,29 +893,30 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
+        <v>900</v>
+      </c>
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -983,15 +1002,15 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,8 +1020,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,43 +1097,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1116,43 +1142,46 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>800</v>
       </c>
       <c r="J20" s="3">
         <v>800</v>
@@ -1208,40 +1241,43 @@
         <v>800</v>
       </c>
       <c r="L20" s="3">
+        <v>800</v>
+      </c>
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,18 +1316,18 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1298,8 +1337,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,8 +1349,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1322,25 +1364,25 @@
         <v>-9400</v>
       </c>
       <c r="F23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
@@ -1349,13 +1391,16 @@
         <v>400</v>
       </c>
       <c r="O23" s="3">
+        <v>400</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,25 +1505,25 @@
         <v>-9400</v>
       </c>
       <c r="F26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>400</v>
@@ -1481,13 +1532,16 @@
         <v>400</v>
       </c>
       <c r="O26" s="3">
+        <v>400</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1498,28 +1552,28 @@
         <v>-9400</v>
       </c>
       <c r="F27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-800</v>
       </c>
       <c r="J32" s="3">
         <v>-800</v>
@@ -1736,22 +1805,25 @@
         <v>-800</v>
       </c>
       <c r="L32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1762,28 +1834,28 @@
         <v>-9400</v>
       </c>
       <c r="F33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1850,28 +1928,28 @@
         <v>-9400</v>
       </c>
       <c r="F35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,29 +2052,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E41" s="3">
         <v>14600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1997,31 +2083,34 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E42" s="3">
         <v>36900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2037,8 +2126,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,29 +2144,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2087,8 +2179,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2114,13 +2209,13 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2131,8 +2226,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2143,37 +2238,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2187,28 +2285,31 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E46" s="3">
         <v>54500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2217,22 +2318,25 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2251,53 +2355,56 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>12400</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>12400</v>
       </c>
       <c r="K47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L47" s="3">
         <v>148500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>147600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>147000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>146400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>145900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2307,8 +2414,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,13 +2585,13 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2483,8 +2602,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E54" s="3">
         <v>57000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>148500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>147900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>147400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,75 +2748,79 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>1600</v>
       </c>
       <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2707,41 +2840,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4100</v>
       </c>
       <c r="H59" s="3">
         <v>4100</v>
       </c>
       <c r="I59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J59" s="3">
         <v>4400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5100</v>
       </c>
       <c r="K59" s="3">
         <v>5100</v>
       </c>
       <c r="L59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -2751,57 +2887,63 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2839,17 +2981,20 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,14 +3010,14 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>5000</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,40 +3169,43 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>5100</v>
       </c>
       <c r="N66" s="3">
         <v>5100</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-116900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-98100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1800</v>
       </c>
       <c r="K72" s="3">
         <v>1800</v>
       </c>
       <c r="L72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M72" s="3">
         <v>1300</v>
       </c>
       <c r="N72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O72" s="3">
         <v>900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E76" s="3">
         <v>52200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>66600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>142800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>142300</v>
       </c>
       <c r="M76" s="3">
         <v>142300</v>
       </c>
       <c r="N76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="O76" s="3">
         <v>141800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>141400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3705,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3578,28 +3772,28 @@
         <v>-9400</v>
       </c>
       <c r="F81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,16 +3835,16 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3660,8 +3858,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,40 +4105,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -3934,10 +4150,13 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4173,26 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>-200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3986,8 +4206,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,35 +4312,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>-200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>136900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4128,10 +4357,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,35 +4566,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>60100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-136900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4366,10 +4611,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,40 +4660,43 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>52500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -4454,6 +4705,9 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
       </c>
       <c r="H8" s="3">
         <v>1600</v>
       </c>
       <c r="I8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -781,32 +785,35 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -828,32 +835,35 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>400</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,32 +907,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>900</v>
       </c>
       <c r="G12" s="3">
         <v>900</v>
       </c>
       <c r="H12" s="3">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1005,15 +1025,15 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1023,8 +1043,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1124,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1145,46 +1172,49 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,31 +1244,32 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>800</v>
       </c>
       <c r="K20" s="3">
         <v>800</v>
@@ -1244,43 +1278,46 @@
         <v>800</v>
       </c>
       <c r="M20" s="3">
+        <v>800</v>
+      </c>
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,18 +1359,18 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1340,8 +1380,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,13 +1392,16 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="E23" s="3">
         <v>-9400</v>
@@ -1367,25 +1410,25 @@
         <v>-9400</v>
       </c>
       <c r="G23" s="3">
-        <v>-7000</v>
+        <v>-9400</v>
       </c>
       <c r="H23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>400</v>
       </c>
       <c r="N23" s="3">
         <v>400</v>
@@ -1394,13 +1437,16 @@
         <v>400</v>
       </c>
       <c r="P23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,13 +1542,16 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="E26" s="3">
         <v>-9400</v>
@@ -1508,25 +1560,25 @@
         <v>-9400</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-9400</v>
       </c>
       <c r="H26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>400</v>
@@ -1535,18 +1587,21 @@
         <v>400</v>
       </c>
       <c r="P26" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="E27" s="3">
         <v>-9400</v>
@@ -1555,28 +1610,28 @@
         <v>-9400</v>
       </c>
       <c r="G27" s="3">
-        <v>-7000</v>
+        <v>-9400</v>
       </c>
       <c r="H27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,31 +1842,34 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-800</v>
       </c>
       <c r="K32" s="3">
         <v>-800</v>
@@ -1808,27 +1878,30 @@
         <v>-800</v>
       </c>
       <c r="M32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="E33" s="3">
         <v>-9400</v>
@@ -1837,28 +1910,28 @@
         <v>-9400</v>
       </c>
       <c r="G33" s="3">
-        <v>-7000</v>
+        <v>-9400</v>
       </c>
       <c r="H33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,13 +1992,16 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="E35" s="3">
         <v>-9400</v>
@@ -1931,28 +2010,28 @@
         <v>-9400</v>
       </c>
       <c r="G35" s="3">
-        <v>-7000</v>
+        <v>-9400</v>
       </c>
       <c r="H35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,32 +2139,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E41" s="3">
         <v>24200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2086,34 +2173,37 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E42" s="3">
         <v>39500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2129,8 +2219,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2147,32 +2237,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,8 +2275,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2194,13 +2287,16 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2212,13 +2308,13 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2229,8 +2325,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2241,40 +2337,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2288,31 +2387,34 @@
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E46" s="3">
         <v>66900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2321,22 +2423,25 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
       </c>
       <c r="O46" s="3">
         <v>500</v>
       </c>
       <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2358,56 +2463,59 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>12400</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>12400</v>
       </c>
       <c r="L47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="M47" s="3">
         <v>148500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>147600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>147000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>146400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>145900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2417,8 +2525,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2588,13 +2708,13 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2605,8 +2725,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E54" s="3">
         <v>69800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>148500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>147900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>147400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,63 +2879,67 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>1600</v>
       </c>
       <c r="I57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2816,14 +2950,14 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2843,44 +2977,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4100</v>
       </c>
       <c r="I59" s="3">
         <v>4100</v>
       </c>
       <c r="J59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5100</v>
       </c>
       <c r="L59" s="3">
         <v>5100</v>
       </c>
       <c r="M59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -2890,55 +3027,61 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2946,7 +3089,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2984,20 +3127,23 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3013,14 +3159,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>5000</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,43 +3327,46 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>5100</v>
       </c>
       <c r="O66" s="3">
         <v>5100</v>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-126400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-98100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1800</v>
       </c>
       <c r="L72" s="3">
         <v>1800</v>
       </c>
       <c r="M72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="N72" s="3">
         <v>1300</v>
       </c>
       <c r="O72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P72" s="3">
         <v>900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E76" s="3">
         <v>63500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>142800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>142300</v>
       </c>
       <c r="N76" s="3">
         <v>142300</v>
       </c>
       <c r="O76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="P76" s="3">
         <v>141800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>141400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,65 +3897,71 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="E81" s="3">
         <v>-9400</v>
@@ -3775,28 +3970,28 @@
         <v>-9400</v>
       </c>
       <c r="G81" s="3">
-        <v>-7000</v>
+        <v>-9400</v>
       </c>
       <c r="H81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,16 +4037,16 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3861,8 +4060,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,43 +4322,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4153,10 +4370,13 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,28 +4394,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4209,8 +4430,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,38 +4542,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>-200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>136900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4360,10 +4590,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,38 +4812,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E100" s="3">
         <v>19200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>60100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-136900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4614,10 +4860,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,43 +4912,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
@@ -4708,6 +4960,9 @@
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1600</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
       </c>
       <c r="J8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -788,35 +792,38 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
-        <v>1400</v>
-      </c>
       <c r="H9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,26 +857,26 @@
         <v>500</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
-        <v>-600</v>
-      </c>
       <c r="H10" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,35 +921,36 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>900</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
       </c>
       <c r="I12" s="3">
+        <v>900</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1028,15 +1048,15 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +1066,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1151,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1175,49 +1202,52 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,34 +1278,35 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>800</v>
       </c>
       <c r="L20" s="3">
         <v>800</v>
@@ -1281,46 +1315,49 @@
         <v>800</v>
       </c>
       <c r="N20" s="3">
+        <v>800</v>
+      </c>
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-9300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,18 +1402,18 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1383,8 +1423,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1395,16 +1435,19 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-9400</v>
       </c>
       <c r="F23" s="3">
         <v>-9400</v>
@@ -1413,25 +1456,25 @@
         <v>-9400</v>
       </c>
       <c r="H23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>400</v>
       </c>
       <c r="O23" s="3">
         <v>400</v>
@@ -1440,13 +1483,16 @@
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>400</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,16 +1594,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-9400</v>
       </c>
       <c r="F26" s="3">
         <v>-9400</v>
@@ -1563,25 +1615,25 @@
         <v>-9400</v>
       </c>
       <c r="H26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>400</v>
       </c>
       <c r="O26" s="3">
         <v>400</v>
@@ -1590,21 +1642,24 @@
         <v>400</v>
       </c>
       <c r="Q26" s="3">
+        <v>400</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-9400</v>
       </c>
       <c r="F27" s="3">
         <v>-9400</v>
@@ -1613,28 +1668,28 @@
         <v>-9400</v>
       </c>
       <c r="H27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,34 +1912,37 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-800</v>
       </c>
       <c r="L32" s="3">
         <v>-800</v>
@@ -1881,30 +1951,33 @@
         <v>-800</v>
       </c>
       <c r="N32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-9400</v>
       </c>
       <c r="F33" s="3">
         <v>-9400</v>
@@ -1913,28 +1986,28 @@
         <v>-9400</v>
       </c>
       <c r="H33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,16 +2071,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-9400</v>
       </c>
       <c r="F35" s="3">
         <v>-9400</v>
@@ -2013,28 +2092,28 @@
         <v>-9400</v>
       </c>
       <c r="H35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,35 +2226,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E41" s="3">
         <v>218600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2176,37 +2263,40 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
       </c>
       <c r="Q41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E42" s="3">
         <v>39600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2222,8 +2312,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2240,35 +2330,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2278,8 +2371,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2290,16 +2383,19 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2311,13 +2407,13 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2328,8 +2424,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2340,43 +2436,46 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2390,34 +2489,37 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>272200</v>
+      </c>
+      <c r="E46" s="3">
         <v>261700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2426,99 +2528,105 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
       <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>12400</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>12400</v>
       </c>
       <c r="M47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="N47" s="3">
         <v>148500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>147600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>147000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>146400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>145900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2528,8 +2636,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,13 +2831,13 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2728,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E54" s="3">
         <v>265000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>148500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>147900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>147400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
       </c>
       <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2941,8 +3075,8 @@
       <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2953,14 +3087,14 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4100</v>
       </c>
       <c r="J59" s="3">
         <v>4100</v>
       </c>
       <c r="K59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L59" s="3">
         <v>4400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>5100</v>
       </c>
       <c r="M59" s="3">
         <v>5100</v>
       </c>
       <c r="N59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3030,58 +3167,64 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3092,7 +3235,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3130,23 +3273,26 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3162,14 +3308,14 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>5000</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,46 +3485,49 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>5100</v>
       </c>
       <c r="P66" s="3">
         <v>5100</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-126400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-98100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-86000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1800</v>
       </c>
       <c r="M72" s="3">
         <v>1800</v>
       </c>
       <c r="N72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="O72" s="3">
         <v>1300</v>
       </c>
       <c r="P72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E76" s="3">
         <v>256800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>142800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>142300</v>
       </c>
       <c r="O76" s="3">
         <v>142300</v>
       </c>
       <c r="P76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>141800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>141400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,71 +4089,77 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-9400</v>
       </c>
       <c r="F81" s="3">
         <v>-9400</v>
@@ -3973,28 +4168,28 @@
         <v>-9400</v>
       </c>
       <c r="H81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4040,16 +4239,16 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4063,8 +4262,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,46 +4539,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4373,10 +4590,13 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +4615,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4433,8 +4654,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,32 +4784,32 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>-200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>136900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4593,10 +4823,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,41 +5058,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>205300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>60100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-136900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4863,10 +5109,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,46 +5164,49 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>194300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
@@ -4963,6 +5215,9 @@
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1600</v>
       </c>
       <c r="J8" s="3">
         <v>1600</v>
       </c>
       <c r="K8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -795,38 +799,41 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
-        <v>1600</v>
-      </c>
       <c r="H9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,38 +855,41 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,38 +935,39 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
+        <v>900</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1051,15 +1071,15 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1089,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,52 +1178,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E17" s="3">
         <v>20400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1205,52 +1232,55 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,28 +1322,28 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>800</v>
       </c>
       <c r="M20" s="3">
         <v>800</v>
@@ -1318,49 +1352,52 @@
         <v>800</v>
       </c>
       <c r="O20" s="3">
+        <v>800</v>
+      </c>
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-9200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-9500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,18 +1445,18 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1466,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,46 +1478,49 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-9400</v>
       </c>
       <c r="G23" s="3">
         <v>-9400</v>
       </c>
       <c r="H23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
@@ -1486,13 +1529,16 @@
         <v>400</v>
       </c>
       <c r="R23" s="3">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,46 +1646,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-9400</v>
       </c>
       <c r="G26" s="3">
         <v>-9400</v>
       </c>
       <c r="H26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>400</v>
       </c>
       <c r="P26" s="3">
         <v>400</v>
@@ -1645,54 +1697,57 @@
         <v>400</v>
       </c>
       <c r="R26" s="3">
+        <v>400</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-9400</v>
       </c>
       <c r="G27" s="3">
         <v>-9400</v>
       </c>
       <c r="H27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,28 +1994,28 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-800</v>
       </c>
       <c r="M32" s="3">
         <v>-800</v>
@@ -1954,63 +2024,66 @@
         <v>-800</v>
       </c>
       <c r="O32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-300</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-9400</v>
       </c>
       <c r="G33" s="3">
         <v>-9400</v>
       </c>
       <c r="H33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,49 +2150,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-9400</v>
       </c>
       <c r="G35" s="3">
         <v>-9400</v>
       </c>
       <c r="H35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,38 +2313,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E41" s="3">
         <v>229600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2266,40 +2353,43 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
       <c r="R41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E42" s="3">
         <v>38600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,38 +2423,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2374,8 +2467,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2386,19 +2479,22 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2410,13 +2506,13 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2427,8 +2523,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2439,46 +2535,49 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2492,37 +2591,40 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>254300</v>
+      </c>
+      <c r="E46" s="3">
         <v>272200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>261700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>70100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -2531,22 +2633,25 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2571,65 +2676,68 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>12400</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>12400</v>
       </c>
       <c r="N47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O47" s="3">
         <v>148500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>147600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>147000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>146400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>145900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,8 +2747,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2834,13 +2954,13 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E54" s="3">
         <v>275700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>265000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>72000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>148500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>147900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>147400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>146500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>1600</v>
       </c>
       <c r="K57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,8 +3212,8 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3090,14 +3224,14 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4100</v>
       </c>
       <c r="K59" s="3">
         <v>4100</v>
       </c>
       <c r="L59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M59" s="3">
         <v>4400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5100</v>
       </c>
       <c r="N59" s="3">
         <v>5100</v>
       </c>
       <c r="O59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -3170,61 +3307,67 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3238,7 +3381,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3276,26 +3419,29 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3311,14 +3457,14 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>5000</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,49 +3643,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>5100</v>
       </c>
       <c r="Q66" s="3">
         <v>5100</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-180300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-143100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-126400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-98100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-86000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1800</v>
       </c>
       <c r="N72" s="3">
         <v>1800</v>
       </c>
       <c r="O72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="P72" s="3">
         <v>1300</v>
       </c>
       <c r="Q72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R72" s="3">
         <v>900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>251900</v>
+      </c>
+      <c r="E76" s="3">
         <v>267300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>256800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>66600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>142800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>142300</v>
       </c>
       <c r="P76" s="3">
         <v>142300</v>
       </c>
       <c r="Q76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="R76" s="3">
         <v>141800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>141400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,107 +4281,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-9400</v>
       </c>
       <c r="G81" s="3">
         <v>-9400</v>
       </c>
       <c r="H81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4242,16 +4441,16 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4265,8 +4464,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,49 +4756,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4593,10 +4810,13 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,34 +4836,35 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-200</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,44 +5002,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-7600</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>-200</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>136900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4826,10 +5056,13 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,44 +5304,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>24000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>205300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-136900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5112,10 +5358,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,49 +5416,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>194300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
@@ -5218,6 +5470,9 @@
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -817,7 +817,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="3">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="H9" s="3">
         <v>3200</v>
@@ -873,7 +873,7 @@
         <v>500</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>-1400</v>
       </c>
       <c r="H10" s="3">
         <v>-1800</v>
@@ -1328,7 +1328,7 @@
         <v>-1600</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1384,7 +1384,7 @@
         <v>-14900</v>
       </c>
       <c r="G21" s="3">
-        <v>-9300</v>
+        <v>-10500</v>
       </c>
       <c r="H21" s="3">
         <v>-9100</v>
@@ -1496,7 +1496,7 @@
         <v>-15100</v>
       </c>
       <c r="G23" s="3">
-        <v>-9400</v>
+        <v>-10700</v>
       </c>
       <c r="H23" s="3">
         <v>-9300</v>
@@ -1664,7 +1664,7 @@
         <v>-15100</v>
       </c>
       <c r="G26" s="3">
-        <v>-9400</v>
+        <v>-10700</v>
       </c>
       <c r="H26" s="3">
         <v>-9300</v>
@@ -1720,7 +1720,7 @@
         <v>-15100</v>
       </c>
       <c r="G27" s="3">
-        <v>-9400</v>
+        <v>-10700</v>
       </c>
       <c r="H27" s="3">
         <v>-9300</v>
@@ -2000,7 +2000,7 @@
         <v>1600</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2056,7 +2056,7 @@
         <v>-15100</v>
       </c>
       <c r="G33" s="3">
-        <v>-9400</v>
+        <v>-10700</v>
       </c>
       <c r="H33" s="3">
         <v>-9300</v>
@@ -2168,7 +2168,7 @@
         <v>-15100</v>
       </c>
       <c r="G35" s="3">
-        <v>-9400</v>
+        <v>-10700</v>
       </c>
       <c r="H35" s="3">
         <v>-9300</v>
@@ -4360,7 +4360,7 @@
         <v>-15100</v>
       </c>
       <c r="G81" s="3">
-        <v>-9400</v>
+        <v>-10700</v>
       </c>
       <c r="H81" s="3">
         <v>-9300</v>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -802,44 +809,50 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J9" s="3">
         <v>3200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,35 +886,35 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>-1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,44 +961,46 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,41 +1101,41 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F17" s="3">
         <v>23300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-17300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-13400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-9400</v>
       </c>
       <c r="I18" s="3">
         <v>-9500</v>
       </c>
       <c r="J18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-800</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,97 +1378,105 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>800</v>
       </c>
       <c r="O20" s="3">
         <v>800</v>
       </c>
       <c r="P20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>800</v>
+      </c>
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-16900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-14900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,32 +1527,32 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>400</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
       </c>
       <c r="S23" s="3">
+        <v>400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>400</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,111 +1746,123 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>400</v>
       </c>
       <c r="R26" s="3">
         <v>400</v>
       </c>
       <c r="S26" s="3">
+        <v>400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>400</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-17100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,111 +2118,123 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-800</v>
       </c>
       <c r="O32" s="3">
         <v>-800</v>
       </c>
       <c r="P32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,55 +2304,61 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,88 +2485,96 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F41" s="3">
         <v>204100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>229600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>218600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>61100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>67900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F42" s="3">
         <v>45400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>38600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>39600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>39500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>36900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2408,11 +2587,11 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,55 +2605,61 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1200</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,25 +2667,31 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2509,16 +2700,16 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2526,11 +2717,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2538,43 +2729,49 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2583,7 +2780,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>208100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>232800</v>
+      </c>
+      <c r="F46" s="3">
         <v>254300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>272200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>261700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>66900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>54500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>62500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>70100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>23700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2679,82 +2888,88 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>12400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>12400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>148500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>147600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>147000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>146400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>145900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F48" s="3">
         <v>12500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,10 +3178,10 @@
         <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2957,28 +3196,28 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>239500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F54" s="3">
         <v>269900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>275700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>265000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>69800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>57000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>64700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>72000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>24000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>148500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>147900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>147400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>146900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>146500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3401,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3215,11 +3482,11 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3227,8 +3494,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3236,8 +3503,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,128 +3521,146 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3384,10 +3669,10 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3422,32 +3707,38 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F62" s="3">
         <v>7000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3460,17 +3751,17 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>5000</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,55 +3955,61 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F66" s="3">
         <v>18000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>5100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>5100</v>
       </c>
       <c r="S66" s="3">
         <v>5100</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-236500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-206400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-180300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-160200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-143100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-126400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-116900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-107500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-98100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-91100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-86000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>229700</v>
+      </c>
+      <c r="F76" s="3">
         <v>251900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>267300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>256800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>63500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>58900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>66600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>142800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>142300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>142300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>141800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>141400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,116 +4661,128 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,19 +4818,21 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
-        <v>200</v>
-      </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4444,19 +4841,19 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4467,11 +4864,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,41 +5276,43 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4881,11 +5322,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,50 +5458,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-37300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>136900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5059,10 +5518,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5792,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>24000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>205300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>19200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>60100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-136900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5361,10 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-22500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>194300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-46500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>52500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1600</v>
       </c>
       <c r="M8" s="3">
         <v>1600</v>
       </c>
       <c r="N8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -815,47 +819,50 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,47 +884,50 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
       </c>
       <c r="I10" s="3">
+        <v>500</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,47 +976,48 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>900</v>
       </c>
       <c r="L12" s="3">
         <v>900</v>
       </c>
       <c r="M12" s="3">
+        <v>900</v>
+      </c>
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,11 +1127,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1119,15 +1139,15 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1137,8 +1157,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,61 +1258,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E17" s="3">
         <v>33900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1294,61 +1321,64 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,46 +1413,47 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>800</v>
       </c>
       <c r="P20" s="3">
         <v>800</v>
@@ -1428,58 +1462,61 @@
         <v>800</v>
       </c>
       <c r="R20" s="3">
+        <v>800</v>
+      </c>
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>300</v>
       </c>
       <c r="V20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,13 +1541,16 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1533,18 +1573,18 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1554,8 +1594,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1566,55 +1606,58 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>400</v>
       </c>
       <c r="S23" s="3">
         <v>400</v>
@@ -1623,13 +1666,16 @@
         <v>400</v>
       </c>
       <c r="U23" s="3">
+        <v>400</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,55 +1801,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>400</v>
       </c>
       <c r="S26" s="3">
         <v>400</v>
@@ -1809,63 +1861,66 @@
         <v>400</v>
       </c>
       <c r="U26" s="3">
+        <v>400</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,46 +2191,49 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-800</v>
       </c>
       <c r="P32" s="3">
         <v>-800</v>
@@ -2172,72 +2242,75 @@
         <v>-800</v>
       </c>
       <c r="R32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-300</v>
       </c>
       <c r="V32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,58 +2386,61 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,47 +2573,48 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E41" s="3">
         <v>145100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>176900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>204100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>229600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2535,49 +2622,52 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
       <c r="U41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E42" s="3">
         <v>54100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>48400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>39600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>36900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,47 +2701,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2661,8 +2754,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2673,28 +2766,31 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2706,13 +2802,13 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2723,8 +2819,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2735,55 +2831,58 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2797,46 +2896,49 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E46" s="3">
         <v>208100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>232800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>254300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>272200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>261700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>66900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>54500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2845,22 +2947,25 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
       <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2894,74 +2999,77 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>12400</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>12400</v>
       </c>
       <c r="Q47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R47" s="3">
         <v>148500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>147600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>147000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>146400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>145900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E48" s="3">
         <v>28200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2971,8 +3079,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
         <v>3200</v>
@@ -3184,7 +3304,7 @@
         <v>3200</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3202,13 +3322,13 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E54" s="3">
         <v>239500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>248300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>269900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>275700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>265000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>148500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>147900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>147400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>146900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>146500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>1600</v>
       </c>
       <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3488,8 +3622,8 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3500,14 +3634,14 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3527,59 +3661,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E59" s="3">
         <v>12700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4100</v>
       </c>
       <c r="N59" s="3">
         <v>4100</v>
       </c>
       <c r="O59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P59" s="3">
         <v>4400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>5100</v>
       </c>
       <c r="Q59" s="3">
         <v>5100</v>
       </c>
       <c r="R59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
@@ -3589,70 +3726,76 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
         <v>14400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -3675,7 +3818,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3713,35 +3856,38 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3757,14 +3903,14 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>5000</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,58 +4116,61 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E66" s="3">
         <v>36000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>5100</v>
       </c>
       <c r="T66" s="3">
         <v>5100</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-266100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-236500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-206400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-180300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-160200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-143100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-126400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-107500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-98100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-86000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>1800</v>
       </c>
       <c r="Q72" s="3">
         <v>1800</v>
       </c>
       <c r="R72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="S72" s="3">
         <v>1300</v>
       </c>
       <c r="T72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U72" s="3">
         <v>900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E76" s="3">
         <v>203500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>229700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>251900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>256800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>63500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>142800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>142300</v>
       </c>
       <c r="S76" s="3">
         <v>142300</v>
       </c>
       <c r="T76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="U76" s="3">
         <v>141800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>141400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,125 +4856,131 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,13 +5028,13 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4847,16 +5046,16 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4870,8 +5069,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,58 +5406,61 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5252,10 +5469,13 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,43 +5498,44 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>-200</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5328,8 +5549,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,53 +5691,56 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>-200</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>136900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5524,10 +5754,13 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,53 +6041,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>205300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-136900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5858,10 +6104,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,58 +6171,61 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>194300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-46500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>52500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
@@ -5982,6 +6234,9 @@
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1600</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
       </c>
       <c r="O8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -822,50 +826,53 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,50 +894,53 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
       </c>
       <c r="J10" s="3">
+        <v>500</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,50 +990,51 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E12" s="3">
         <v>6900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>900</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
       </c>
       <c r="N12" s="3">
+        <v>900</v>
+      </c>
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,11 +1150,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1142,15 +1162,15 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1180,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,64 +1285,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E17" s="3">
         <v>34100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1324,64 +1351,67 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,49 +1447,50 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>800</v>
       </c>
       <c r="Q20" s="3">
         <v>800</v>
@@ -1465,61 +1499,64 @@
         <v>800</v>
       </c>
       <c r="S20" s="3">
+        <v>800</v>
+      </c>
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
-      </c>
-      <c r="V20" s="3">
-        <v>300</v>
       </c>
       <c r="W20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,16 +1581,19 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1576,18 +1616,18 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1597,8 +1637,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1609,58 +1649,61 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>400</v>
       </c>
       <c r="T23" s="3">
         <v>400</v>
@@ -1669,13 +1712,16 @@
         <v>400</v>
       </c>
       <c r="V23" s="3">
+        <v>400</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,58 +1853,61 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>400</v>
       </c>
       <c r="T26" s="3">
         <v>400</v>
@@ -1864,66 +1916,69 @@
         <v>400</v>
       </c>
       <c r="V26" s="3">
+        <v>400</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,49 +2261,52 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-800</v>
       </c>
       <c r="Q32" s="3">
         <v>-800</v>
@@ -2245,75 +2315,78 @@
         <v>-800</v>
       </c>
       <c r="S32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-300</v>
       </c>
       <c r="W32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,61 +2465,64 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,50 +2660,51 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E41" s="3">
         <v>120300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>176900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>204100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>229600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2625,52 +2712,55 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
       </c>
       <c r="V41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E42" s="3">
         <v>53500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>48400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>38600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,50 +2794,53 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E43" s="3">
         <v>6000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2757,8 +2850,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2778,22 +2874,22 @@
         <v>1400</v>
       </c>
       <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2805,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2822,8 +2918,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2834,58 +2930,61 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2899,49 +2998,52 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E46" s="3">
         <v>183900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>208100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>232800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>254300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>272200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>261700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>62500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -2950,22 +3052,25 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3002,77 +3107,80 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
-        <v>12400</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>12400</v>
       </c>
       <c r="R47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S47" s="3">
         <v>148500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>147600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>147000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>146400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>145900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E48" s="3">
         <v>28600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3082,8 +3190,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,7 +3418,7 @@
         <v>3600</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
         <v>3200</v>
@@ -3307,7 +3427,7 @@
         <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3325,13 +3445,13 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3342,8 +3462,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E54" s="3">
         <v>216100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>239500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>248300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>269900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>275700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>265000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>148500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>147900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>147400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>146900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>146500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>1600</v>
       </c>
       <c r="O57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3625,8 +3759,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3637,14 +3771,14 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E59" s="3">
         <v>14100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4100</v>
       </c>
       <c r="O59" s="3">
         <v>4100</v>
       </c>
       <c r="P59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>5100</v>
       </c>
       <c r="R59" s="3">
         <v>5100</v>
       </c>
       <c r="S59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
@@ -3729,73 +3866,79 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -3821,7 +3964,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3859,38 +4002,41 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3906,14 +4052,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>5000</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,61 +4274,64 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E66" s="3">
         <v>37500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>5100</v>
       </c>
       <c r="U66" s="3">
         <v>5100</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-266100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-236500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-206400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-180300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-143100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-126400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-98100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-91100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-86000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>1800</v>
       </c>
       <c r="R72" s="3">
         <v>1800</v>
       </c>
       <c r="S72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="T72" s="3">
         <v>1300</v>
       </c>
       <c r="U72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V72" s="3">
         <v>900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E76" s="3">
         <v>178600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>203500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>229700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>251900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>256800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>142800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>142300</v>
       </c>
       <c r="T76" s="3">
         <v>142300</v>
       </c>
       <c r="U76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="V76" s="3">
         <v>141800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>141400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,131 +5048,137 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,13 +5230,13 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -5049,16 +5248,16 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -5072,8 +5271,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,61 +5623,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5472,10 +5689,13 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,46 +5719,47 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>-200</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5552,8 +5773,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,56 +5921,59 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>-200</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>136900</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5757,10 +5987,13 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,56 +6287,59 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>205300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-136900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6107,10 +6353,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,61 +6423,64 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>194300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-46500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>52500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
@@ -6237,6 +6489,9 @@
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,152 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1600</v>
       </c>
       <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -829,53 +832,56 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,53 +903,56 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
       </c>
       <c r="K10" s="3">
+        <v>500</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,53 +1003,54 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>900</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
       </c>
       <c r="O12" s="3">
+        <v>900</v>
+      </c>
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,37 +1143,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1165,15 +1184,15 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1183,8 +1202,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,67 +1311,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E17" s="3">
         <v>32800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1354,67 +1380,70 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,52 +1480,53 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>800</v>
       </c>
       <c r="R20" s="3">
         <v>800</v>
@@ -1502,64 +1535,67 @@
         <v>800</v>
       </c>
       <c r="T20" s="3">
+        <v>800</v>
+      </c>
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
-      </c>
-      <c r="W20" s="3">
-        <v>300</v>
       </c>
       <c r="X20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1634,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1619,18 +1658,18 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1640,8 +1679,8 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,61 +1691,64 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>400</v>
       </c>
       <c r="U23" s="3">
         <v>400</v>
@@ -1715,13 +1757,16 @@
         <v>400</v>
       </c>
       <c r="W23" s="3">
+        <v>400</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,61 +1904,64 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>400</v>
       </c>
       <c r="U26" s="3">
         <v>400</v>
@@ -1919,69 +1970,72 @@
         <v>400</v>
       </c>
       <c r="W26" s="3">
+        <v>400</v>
+      </c>
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,52 +2330,55 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-800</v>
       </c>
       <c r="R32" s="3">
         <v>-800</v>
@@ -2318,78 +2387,81 @@
         <v>-800</v>
       </c>
       <c r="T32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-300</v>
       </c>
       <c r="X32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,64 +2543,67 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,53 +2746,54 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E41" s="3">
         <v>95500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>120300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>176900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>204100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>229600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2715,55 +2801,58 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>400</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
       </c>
       <c r="W41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E42" s="3">
         <v>53600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>53500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>48400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2779,8 +2868,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2797,53 +2886,56 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2853,8 +2945,8 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2865,34 +2957,37 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2904,13 +2999,13 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2921,8 +3016,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -2933,61 +3028,64 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3001,52 +3099,55 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E46" s="3">
         <v>160800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>183900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>208100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>232800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>254300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>261700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>62500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>70100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -3055,22 +3156,25 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>500</v>
       </c>
       <c r="V46" s="3">
         <v>500</v>
       </c>
       <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3110,80 +3214,83 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>12400</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>12400</v>
       </c>
       <c r="S47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T47" s="3">
         <v>148500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>147600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>147000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>146400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>145900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E48" s="3">
         <v>29600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3193,8 +3300,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3525,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
         <v>3600</v>
       </c>
       <c r="F52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="G52" s="3">
         <v>3200</v>
@@ -3430,7 +3549,7 @@
         <v>3200</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3448,13 +3567,13 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>100</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3465,8 +3584,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E54" s="3">
         <v>194100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>216100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>239500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>248300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>269900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>275700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>265000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>148500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>147900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>147400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>146900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>146500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>1600</v>
       </c>
       <c r="P57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3762,8 +3895,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3774,14 +3907,14 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3801,65 +3934,68 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E59" s="3">
         <v>13900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4100</v>
       </c>
       <c r="P59" s="3">
         <v>4100</v>
       </c>
       <c r="Q59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R59" s="3">
         <v>4400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>5100</v>
       </c>
       <c r="S59" s="3">
         <v>5100</v>
       </c>
       <c r="T59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
@@ -3869,76 +4005,82 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E60" s="3">
         <v>17000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -3967,7 +4109,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4005,41 +4147,44 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4055,14 +4200,14 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>5000</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,64 +4431,67 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E66" s="3">
         <v>39100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>5100</v>
       </c>
       <c r="V66" s="3">
         <v>5100</v>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-323000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-294800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-266100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-236500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-206400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-180300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-160200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-143100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-126400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>1800</v>
       </c>
       <c r="S72" s="3">
         <v>1800</v>
       </c>
       <c r="T72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="U72" s="3">
         <v>1300</v>
       </c>
       <c r="V72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W72" s="3">
         <v>900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E76" s="3">
         <v>155000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>178600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>203500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>229700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>251900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>256800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>142800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>142300</v>
       </c>
       <c r="U76" s="3">
         <v>142300</v>
       </c>
       <c r="V76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="W76" s="3">
         <v>141800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>141400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,137 +5239,143 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,13 +5431,13 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -5251,16 +5449,16 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -5274,8 +5472,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,64 +5839,67 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -5692,10 +5908,13 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,49 +5939,50 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>-200</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5776,8 +5996,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,59 +6150,62 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>-200</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>136900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5990,10 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,59 +6532,62 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>205300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>60100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-136900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6356,10 +6601,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,64 +6674,67 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-27200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>194300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>52500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
@@ -6492,6 +6743,9 @@
         <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,159 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1600</v>
       </c>
       <c r="P8" s="3">
         <v>1600</v>
       </c>
       <c r="Q8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -835,56 +839,59 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,56 +913,59 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
       </c>
       <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,56 +1017,57 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>900</v>
       </c>
       <c r="O12" s="3">
         <v>900</v>
       </c>
       <c r="P12" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,14 +1192,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1187,15 +1207,15 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1205,8 +1225,8 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,70 +1338,71 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E17" s="3">
         <v>31900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1383,70 +1410,73 @@
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,55 +1514,56 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>800</v>
       </c>
       <c r="S20" s="3">
         <v>800</v>
@@ -1538,67 +1572,70 @@
         <v>800</v>
       </c>
       <c r="U20" s="3">
+        <v>800</v>
+      </c>
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
-      </c>
-      <c r="X20" s="3">
-        <v>300</v>
       </c>
       <c r="Y20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1623,13 +1660,16 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1637,8 +1677,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1661,18 +1701,18 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1682,8 +1722,8 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1694,64 +1734,67 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>400</v>
       </c>
       <c r="V23" s="3">
         <v>400</v>
@@ -1760,13 +1803,16 @@
         <v>400</v>
       </c>
       <c r="X23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,64 +1956,67 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
-      </c>
-      <c r="U26" s="3">
-        <v>400</v>
       </c>
       <c r="V26" s="3">
         <v>400</v>
@@ -1973,72 +2025,75 @@
         <v>400</v>
       </c>
       <c r="X26" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,55 +2400,58 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-800</v>
       </c>
       <c r="S32" s="3">
         <v>-800</v>
@@ -2390,81 +2460,84 @@
         <v>-800</v>
       </c>
       <c r="U32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-300</v>
       </c>
       <c r="Y32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,67 +2622,70 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,56 +2833,57 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E41" s="3">
         <v>77800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>95500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>120300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>145100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>204100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>229600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>61100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2804,58 +2891,61 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>400</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E42" s="3">
         <v>48400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>53600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>53500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>48400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2871,8 +2961,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2889,56 +2979,59 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2948,8 +3041,8 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2960,37 +3053,40 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1400</v>
       </c>
       <c r="F44" s="3">
         <v>1400</v>
       </c>
       <c r="G44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -3002,13 +3098,13 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -3019,8 +3115,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3031,64 +3127,67 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3102,55 +3201,58 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E46" s="3">
         <v>136000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>160800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>183900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>208100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>232800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>254300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>272200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>261700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>62500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>70100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3159,22 +3261,25 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>500</v>
       </c>
       <c r="W46" s="3">
         <v>500</v>
       </c>
       <c r="X46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3217,83 +3322,86 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
-        <v>12400</v>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>12400</v>
       </c>
       <c r="T47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="U47" s="3">
         <v>148500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>147600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>147000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>146400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>145900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E48" s="3">
         <v>62400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3303,8 +3411,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3537,13 +3657,13 @@
         <v>3700</v>
       </c>
       <c r="E52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
         <v>3600</v>
       </c>
       <c r="G52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="H52" s="3">
         <v>3200</v>
@@ -3552,7 +3672,7 @@
         <v>3200</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3570,13 +3690,13 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>100</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3587,8 +3707,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E54" s="3">
         <v>202100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>194100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>216100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>239500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>248300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>269900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>275700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>265000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>148500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>147900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>147400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>146900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>146500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>1600</v>
       </c>
       <c r="Q57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3898,8 +4032,8 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3910,14 +4044,14 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3937,68 +4071,71 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E59" s="3">
         <v>13100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>4100</v>
       </c>
       <c r="Q59" s="3">
         <v>4100</v>
       </c>
       <c r="R59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S59" s="3">
         <v>4400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>5100</v>
       </c>
       <c r="T59" s="3">
         <v>5100</v>
       </c>
       <c r="U59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V59" s="3">
         <v>5000</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4008,84 +4145,90 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
         <v>15600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
       <c r="X60" s="3">
         <v>0</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4100,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4112,7 +4255,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4150,44 +4293,47 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E62" s="3">
         <v>54000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4203,14 +4349,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
       <c r="V62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
         <v>5000</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,67 +4589,70 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E66" s="3">
         <v>69700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>5100</v>
       </c>
       <c r="W66" s="3">
         <v>5100</v>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-354300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-323000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-294800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-266100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-236500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-206400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-180300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-160200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-143100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-126400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-86000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1700</v>
-      </c>
-      <c r="S72" s="3">
-        <v>1800</v>
       </c>
       <c r="T72" s="3">
         <v>1800</v>
       </c>
       <c r="U72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="V72" s="3">
         <v>1300</v>
       </c>
       <c r="W72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X72" s="3">
         <v>900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E76" s="3">
         <v>132400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>178600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>203500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>229700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>251900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>267300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>256800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>142800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>142300</v>
       </c>
       <c r="V76" s="3">
         <v>142300</v>
       </c>
       <c r="W76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="X76" s="3">
         <v>141800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>141400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,143 +5431,149 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -5434,13 +5633,13 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -5452,16 +5651,16 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5475,8 +5674,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,67 +6056,70 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -5911,10 +6128,13 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,52 +6160,53 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>-200</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5999,8 +6220,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,62 +6380,65 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>-200</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>136900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6222,10 +6452,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,62 +6778,65 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>205300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>60100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-136900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6604,10 +6850,13 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,67 +6926,70 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>194300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-46500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>52500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-200</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
@@ -6746,6 +6998,9 @@
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,166 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1600</v>
       </c>
       <c r="Q8" s="3">
         <v>1600</v>
       </c>
       <c r="R8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -842,59 +846,62 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,59 +923,62 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,59 +1031,60 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>900</v>
       </c>
       <c r="P12" s="3">
         <v>900</v>
       </c>
       <c r="Q12" s="3">
+        <v>900</v>
+      </c>
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,14 +1215,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1210,15 +1230,15 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1248,8 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,73 +1365,74 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E17" s="3">
         <v>35500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
@@ -1413,73 +1440,76 @@
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,58 +1548,59 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>800</v>
       </c>
       <c r="T20" s="3">
         <v>800</v>
@@ -1575,70 +1609,73 @@
         <v>800</v>
       </c>
       <c r="V20" s="3">
+        <v>800</v>
+      </c>
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>300</v>
       </c>
       <c r="Z20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,16 +1700,19 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1680,8 +1720,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1704,18 +1744,18 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1725,8 +1765,8 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1737,67 +1777,70 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
-      </c>
-      <c r="V23" s="3">
-        <v>400</v>
       </c>
       <c r="W23" s="3">
         <v>400</v>
@@ -1806,13 +1849,16 @@
         <v>400</v>
       </c>
       <c r="Y23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,67 +2008,70 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
-      </c>
-      <c r="V26" s="3">
-        <v>400</v>
       </c>
       <c r="W26" s="3">
         <v>400</v>
@@ -2028,75 +2080,78 @@
         <v>400</v>
       </c>
       <c r="Y26" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,58 +2470,61 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-800</v>
       </c>
       <c r="T32" s="3">
         <v>-800</v>
@@ -2463,84 +2533,87 @@
         <v>-800</v>
       </c>
       <c r="V32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-300</v>
       </c>
       <c r="Z32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,70 +2701,73 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,59 +2920,60 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E41" s="3">
         <v>48400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>120300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>145100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>176900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>204100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>229600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21400</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2894,61 +2981,64 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Z41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E42" s="3">
         <v>56300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>48400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>53600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>53500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>48400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,59 +3072,62 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3044,8 +3137,8 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3056,40 +3149,43 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1400</v>
       </c>
       <c r="G44" s="3">
         <v>1400</v>
       </c>
       <c r="H44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -3101,13 +3197,13 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -3118,8 +3214,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,58 +3238,58 @@
         <v>2300</v>
       </c>
       <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3204,58 +3303,61 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E46" s="3">
         <v>112400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>136000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>160800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>183900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>208100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>232800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>254300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>261700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>62500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>70100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
@@ -3264,22 +3366,25 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>500</v>
       </c>
       <c r="X46" s="3">
         <v>500</v>
       </c>
       <c r="Y46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3325,86 +3430,89 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
-        <v>12400</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>12400</v>
       </c>
       <c r="U47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V47" s="3">
         <v>148500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>147600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>147000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>146400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>145900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E48" s="3">
         <v>61100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3414,8 +3522,8 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,25 +3765,28 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
         <v>3700</v>
       </c>
       <c r="F52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G52" s="3">
         <v>3600</v>
       </c>
       <c r="H52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
         <v>3200</v>
@@ -3675,7 +3795,7 @@
         <v>3200</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3693,13 +3813,13 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>100</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3710,8 +3830,8 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E54" s="3">
         <v>177100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>194100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>216100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>239500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>248300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>269900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>265000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>148500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>147900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>147400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>146900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>146500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>1600</v>
       </c>
       <c r="R57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4035,8 +4169,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -4047,14 +4181,14 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4074,71 +4208,74 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>14400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>4100</v>
       </c>
       <c r="R59" s="3">
         <v>4100</v>
       </c>
       <c r="S59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T59" s="3">
         <v>4400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>5100</v>
       </c>
       <c r="U59" s="3">
         <v>5100</v>
       </c>
       <c r="V59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="W59" s="3">
         <v>5000</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
@@ -4148,82 +4285,88 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
       <c r="Y60" s="3">
         <v>0</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -4246,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -4258,7 +4401,7 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4296,47 +4439,50 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E62" s="3">
         <v>53700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4352,14 +4498,14 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
       <c r="W62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>5000</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,70 +4747,73 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E66" s="3">
         <v>69900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5700</v>
-      </c>
-      <c r="W66" s="3">
-        <v>5100</v>
       </c>
       <c r="X66" s="3">
         <v>5100</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-354300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-323000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-294800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-266100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-236500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-206400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-180300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-160200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-143100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-126400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-116900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-98100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-91100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-86000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1700</v>
-      </c>
-      <c r="T72" s="3">
-        <v>1800</v>
       </c>
       <c r="U72" s="3">
         <v>1800</v>
       </c>
       <c r="V72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="W72" s="3">
         <v>1300</v>
       </c>
       <c r="X72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y72" s="3">
         <v>900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E76" s="3">
         <v>107200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>178600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>203500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>229700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>251900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>267300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>256800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>142800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>142300</v>
       </c>
       <c r="W76" s="3">
         <v>142300</v>
       </c>
       <c r="X76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>141800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>141400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,149 +5623,155 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5823,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -5636,13 +5835,13 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -5654,16 +5853,16 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5677,8 +5876,8 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,70 +6273,73 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6131,10 +6348,13 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,55 +6381,56 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>-200</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -6223,8 +6444,8 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,65 +6610,68 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>-200</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>136900</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6455,10 +6685,13 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,65 +7024,68 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>205300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>60100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-136900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6853,10 +7099,13 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,70 +7178,73 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>194300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>52500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-200</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
@@ -7001,6 +7253,9 @@
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DMTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>DMTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,173 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1600</v>
       </c>
       <c r="R8" s="3">
         <v>1600</v>
       </c>
       <c r="S8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -849,62 +853,65 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,62 +933,65 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>500</v>
       </c>
       <c r="N10" s="3">
+        <v>500</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,62 +1045,63 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>900</v>
       </c>
       <c r="Q12" s="3">
         <v>900</v>
       </c>
       <c r="R12" s="3">
+        <v>900</v>
+      </c>
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,14 +1238,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1233,15 +1253,15 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1251,8 +1271,8 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,76 +1392,77 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E17" s="3">
         <v>36100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
@@ -1443,76 +1470,79 @@
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,52 +1592,52 @@
         <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>800</v>
       </c>
       <c r="U20" s="3">
         <v>800</v>
@@ -1612,73 +1646,76 @@
         <v>800</v>
       </c>
       <c r="W20" s="3">
+        <v>800</v>
+      </c>
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>300</v>
       </c>
       <c r="AA20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,8 +1754,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1723,8 +1763,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1747,18 +1787,18 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1768,8 +1808,8 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1780,70 +1820,73 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>400</v>
       </c>
       <c r="X23" s="3">
         <v>400</v>
@@ -1852,13 +1895,16 @@
         <v>400</v>
       </c>
       <c r="Z23" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,70 +2060,73 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>400</v>
       </c>
       <c r="X26" s="3">
         <v>400</v>
@@ -2083,78 +2135,81 @@
         <v>400</v>
       </c>
       <c r="Z26" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,52 +2552,52 @@
         <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-800</v>
       </c>
       <c r="U32" s="3">
         <v>-800</v>
@@ -2536,87 +2606,90 @@
         <v>-800</v>
       </c>
       <c r="W32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-300</v>
       </c>
       <c r="AA32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,73 +2780,76 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,62 +3007,63 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E41" s="3">
         <v>42800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>77800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>120300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>145100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>176900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>229600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21400</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2984,64 +3071,67 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>400</v>
       </c>
       <c r="Z41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AA41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E42" s="3">
         <v>43400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>56300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>48400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>53600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>53500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>54100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>48400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3057,8 +3147,8 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3075,62 +3165,65 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3140,8 +3233,8 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3152,43 +3245,46 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1400</v>
       </c>
       <c r="H44" s="3">
         <v>1400</v>
       </c>
       <c r="I44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -3200,13 +3296,13 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3217,8 +3313,8 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3229,70 +3325,73 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
         <v>2300</v>
       </c>
       <c r="F45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3306,61 +3405,64 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E46" s="3">
         <v>93700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>112400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>136000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>160800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>183900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>208100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>232800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>261700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>66900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>54500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>70100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23700</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
@@ -3369,22 +3471,25 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>500</v>
       </c>
       <c r="Y46" s="3">
         <v>500</v>
       </c>
       <c r="Z46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3433,89 +3538,92 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
-        <v>12400</v>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>12400</v>
       </c>
       <c r="V47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="W47" s="3">
         <v>148500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>147600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>147000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>146400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>145900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>145500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E48" s="3">
         <v>59900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3525,8 +3633,8 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,19 +3897,19 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F52" s="3">
         <v>3700</v>
       </c>
       <c r="G52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H52" s="3">
         <v>3600</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="J52" s="3">
         <v>3200</v>
@@ -3798,7 +3918,7 @@
         <v>3200</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3816,13 +3936,13 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>100</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3833,8 +3953,8 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E54" s="3">
         <v>157100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>194100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>216100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>239500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>248300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>269900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>265000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>148500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>147900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>147400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>146900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>146500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>146200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,90 +4187,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>1600</v>
       </c>
       <c r="S57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -4172,8 +4306,8 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -4184,14 +4318,14 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4211,74 +4345,77 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>4100</v>
       </c>
       <c r="S59" s="3">
         <v>4100</v>
       </c>
       <c r="T59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U59" s="3">
         <v>4400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>5100</v>
       </c>
       <c r="V59" s="3">
         <v>5100</v>
       </c>
       <c r="W59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="X59" s="3">
         <v>5000</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
@@ -4288,85 +4425,91 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E60" s="3">
         <v>16000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3">
-        <v>0</v>
-      </c>
       <c r="Z60" s="3">
         <v>0</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -4392,7 +4535,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4404,7 +4547,7 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4442,50 +4585,53 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E62" s="3">
         <v>52900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4501,14 +4647,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
       <c r="X62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="3">
         <v>5000</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,73 +4905,76 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E66" s="3">
         <v>69000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>36000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5700</v>
-      </c>
-      <c r="X66" s="3">
-        <v>5100</v>
       </c>
       <c r="Y66" s="3">
         <v>5100</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-404800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-354300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-323000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-294800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-266100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-236500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-206400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-180300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-160200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-143100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-126400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-116900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-98100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-91100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-86000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>1800</v>
       </c>
       <c r="V72" s="3">
         <v>1800</v>
       </c>
       <c r="W72" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="X72" s="3">
         <v>1300</v>
       </c>
       <c r="Y72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z72" s="3">
         <v>900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E76" s="3">
         <v>88100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>132400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>178600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>203500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>229700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>251900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>256800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>58900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>142800</v>
-      </c>
-      <c r="W76" s="3">
-        <v>142300</v>
       </c>
       <c r="X76" s="3">
         <v>142300</v>
       </c>
       <c r="Y76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="Z76" s="3">
         <v>141800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>141400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>141200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,155 +5815,161 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,19 +6012,20 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -5838,13 +6037,13 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5856,16 +6055,16 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5879,8 +6078,8 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,73 +6490,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -6351,10 +6568,13 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,58 +6602,59 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>-200</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6447,8 +6668,8 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,68 +6840,71 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>13100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>-200</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>136900</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6688,10 +6918,13 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-145200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,68 +7270,71 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>205300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>60100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-136900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7102,10 +7348,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,73 +7430,76 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-27200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>194300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>52500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-200</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
@@ -7256,6 +7508,9 @@
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
     </row>
